--- a/Viable Titre/Last_one.xlsx
+++ b/Viable Titre/Last_one.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -579,49 +579,127 @@
           <t>Cm</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+      <c r="C4" t="n">
+        <v>60</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>40</v>
+      </c>
+      <c r="H4" t="n">
+        <v>34</v>
+      </c>
+      <c r="I4" t="n">
+        <v>56</v>
+      </c>
+      <c r="J4" t="n">
+        <v>34</v>
+      </c>
+      <c r="K4" t="n">
+        <v>74545.45454545454</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>DG004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Kan</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>60</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G5" t="n">
+        <v>50</v>
+      </c>
+      <c r="H5" t="n">
+        <v>56</v>
+      </c>
+      <c r="I5" t="n">
+        <v>23</v>
+      </c>
+      <c r="J5" t="n">
+        <v>21</v>
+      </c>
+      <c r="K5" t="n">
+        <v>6818181.818181817</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>10e-4</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>10e-3</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>10e-2</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>56</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>74545.45454545454</t>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>486363.6363636364</t>
         </is>
       </c>
     </row>
